--- a/Sufficient data/forecast_summary_B0DGVMYTW6.xlsx
+++ b/Sufficient data/forecast_summary_B0DGVMYTW6.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -430,40 +430,45 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
+          <t>Week_Start_Date</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
           <t>ASIN</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>MyForecast</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>Amazon Mean Forecast</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>Amazon P70 Forecast</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>Amazon P80 Forecast</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>Amazon P90 Forecast</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>Product Title</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>is_holiday_week</t>
         </is>
@@ -472,315 +477,360 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>W01</t>
+          <t>W1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>B0DGVMYTW6</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>2025-01-05</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>B0DGVMYTW6</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
         <v>73</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>206</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>192</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>215</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>251</v>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>X870 EAGLE WIFI7</t>
-        </is>
-      </c>
-      <c r="I2" t="n">
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>X870 EAGLE WIFI7</t>
+        </is>
+      </c>
+      <c r="J2" t="n">
         <v/>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>W02</t>
+          <t>W2</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>B0DGVMYTW6</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+          <t>2025-01-12</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>B0DGVMYTW6</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
         <v>137</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
         <v>221</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>200</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>233</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>284</v>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>X870 EAGLE WIFI7</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>X870 EAGLE WIFI7</t>
+        </is>
+      </c>
+      <c r="J3" t="n">
         <v/>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>W03</t>
+          <t>W3</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>B0DGVMYTW6</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+          <t>2025-01-19</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>B0DGVMYTW6</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
         <v>141</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
         <v>225</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>202</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>237</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>293</v>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>X870 EAGLE WIFI7</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>X870 EAGLE WIFI7</t>
+        </is>
+      </c>
+      <c r="J4" t="n">
         <v/>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>W04</t>
+          <t>W4</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>B0DGVMYTW6</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
+          <t>2025-01-26</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>B0DGVMYTW6</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
         <v>139</v>
       </c>
-      <c r="D5" t="n">
+      <c r="E5" t="n">
         <v>213</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>190</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>225</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
         <v>280</v>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>X870 EAGLE WIFI7</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>X870 EAGLE WIFI7</t>
+        </is>
+      </c>
+      <c r="J5" t="n">
         <v/>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>W05</t>
+          <t>W5</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>B0DGVMYTW6</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
+          <t>2025-02-02</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>B0DGVMYTW6</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
         <v>133</v>
       </c>
-      <c r="D6" t="n">
+      <c r="E6" t="n">
         <v>160</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>144</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>168</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
         <v>206</v>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>X870 EAGLE WIFI7</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>X870 EAGLE WIFI7</t>
+        </is>
+      </c>
+      <c r="J6" t="n">
         <v/>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>W06</t>
+          <t>W6</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>B0DGVMYTW6</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
+          <t>2025-02-09</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>B0DGVMYTW6</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
         <v>133</v>
       </c>
-      <c r="D7" t="n">
+      <c r="E7" t="n">
         <v>158</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>141</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
         <v>167</v>
       </c>
-      <c r="G7" t="n">
+      <c r="H7" t="n">
         <v>208</v>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>X870 EAGLE WIFI7</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>X870 EAGLE WIFI7</t>
+        </is>
+      </c>
+      <c r="J7" t="n">
         <v/>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>W07</t>
+          <t>W7</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>B0DGVMYTW6</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
+          <t>2025-02-16</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>B0DGVMYTW6</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
         <v>135</v>
       </c>
-      <c r="D8" t="n">
+      <c r="E8" t="n">
         <v>175</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>155</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>185</v>
       </c>
-      <c r="G8" t="n">
+      <c r="H8" t="n">
         <v>233</v>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>X870 EAGLE WIFI7</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>X870 EAGLE WIFI7</t>
+        </is>
+      </c>
+      <c r="J8" t="n">
         <v/>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>W08</t>
+          <t>W8</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>B0DGVMYTW6</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
+          <t>2025-02-23</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>B0DGVMYTW6</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
         <v>136</v>
       </c>
-      <c r="D9" t="n">
+      <c r="E9" t="n">
         <v>188</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>165</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
         <v>199</v>
       </c>
-      <c r="G9" t="n">
+      <c r="H9" t="n">
         <v>252</v>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>X870 EAGLE WIFI7</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>X870 EAGLE WIFI7</t>
+        </is>
+      </c>
+      <c r="J9" t="n">
         <v/>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>W09</t>
+          <t>W9</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>B0DGVMYTW6</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
+          <t>2025-03-02</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>B0DGVMYTW6</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
         <v>134</v>
       </c>
-      <c r="D10" t="n">
+      <c r="E10" t="n">
         <v>168</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>149</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
         <v>177</v>
       </c>
-      <c r="G10" t="n">
+      <c r="H10" t="n">
         <v>222</v>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>X870 EAGLE WIFI7</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>X870 EAGLE WIFI7</t>
+        </is>
+      </c>
+      <c r="J10" t="n">
         <v/>
       </c>
     </row>
@@ -792,30 +842,35 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>B0DGVMYTW6</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
+          <t>2025-03-09</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>B0DGVMYTW6</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
         <v>136</v>
       </c>
-      <c r="D11" t="n">
+      <c r="E11" t="n">
         <v>187</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>163</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
         <v>198</v>
       </c>
-      <c r="G11" t="n">
+      <c r="H11" t="n">
         <v>254</v>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>X870 EAGLE WIFI7</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>X870 EAGLE WIFI7</t>
+        </is>
+      </c>
+      <c r="J11" t="n">
         <v/>
       </c>
     </row>
@@ -827,30 +882,35 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>B0DGVMYTW6</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
+          <t>2025-03-16</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>B0DGVMYTW6</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
         <v>135</v>
       </c>
-      <c r="D12" t="n">
+      <c r="E12" t="n">
         <v>180</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>156</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
         <v>191</v>
       </c>
-      <c r="G12" t="n">
+      <c r="H12" t="n">
         <v>246</v>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>X870 EAGLE WIFI7</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>X870 EAGLE WIFI7</t>
+        </is>
+      </c>
+      <c r="J12" t="n">
         <v/>
       </c>
     </row>
@@ -862,30 +922,35 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>B0DGVMYTW6</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
+          <t>2025-03-23</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>B0DGVMYTW6</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
         <v>137</v>
       </c>
-      <c r="D13" t="n">
+      <c r="E13" t="n">
         <v>196</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>167</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
         <v>208</v>
       </c>
-      <c r="G13" t="n">
+      <c r="H13" t="n">
         <v>274</v>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>X870 EAGLE WIFI7</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>X870 EAGLE WIFI7</t>
+        </is>
+      </c>
+      <c r="J13" t="n">
         <v/>
       </c>
     </row>
@@ -897,30 +962,35 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>B0DGVMYTW6</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
+          <t>2025-03-30</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>B0DGVMYTW6</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
         <v>135</v>
       </c>
-      <c r="D14" t="n">
+      <c r="E14" t="n">
         <v>180</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>157</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
         <v>191</v>
       </c>
-      <c r="G14" t="n">
+      <c r="H14" t="n">
         <v>245</v>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>X870 EAGLE WIFI7</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>X870 EAGLE WIFI7</t>
+        </is>
+      </c>
+      <c r="J14" t="n">
         <v/>
       </c>
     </row>
@@ -932,30 +1002,35 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>B0DGVMYTW6</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
+          <t>2025-04-06</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>B0DGVMYTW6</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
         <v>135</v>
       </c>
-      <c r="D15" t="n">
+      <c r="E15" t="n">
         <v>178</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>152</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
         <v>188</v>
       </c>
-      <c r="G15" t="n">
+      <c r="H15" t="n">
         <v>247</v>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>X870 EAGLE WIFI7</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>X870 EAGLE WIFI7</t>
+        </is>
+      </c>
+      <c r="J15" t="n">
         <v/>
       </c>
     </row>
@@ -967,30 +1042,35 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>B0DGVMYTW6</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
+          <t>2025-04-13</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>B0DGVMYTW6</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
         <v>135</v>
       </c>
-      <c r="D16" t="n">
+      <c r="E16" t="n">
         <v>183</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>153</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
         <v>194</v>
       </c>
-      <c r="G16" t="n">
+      <c r="H16" t="n">
         <v>261</v>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>X870 EAGLE WIFI7</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>X870 EAGLE WIFI7</t>
+        </is>
+      </c>
+      <c r="J16" t="n">
         <v/>
       </c>
     </row>
@@ -1002,30 +1082,35 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>B0DGVMYTW6</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
+          <t>2025-04-20</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>B0DGVMYTW6</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
         <v>135</v>
       </c>
-      <c r="D17" t="n">
+      <c r="E17" t="n">
         <v>176</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>151</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
         <v>186</v>
       </c>
-      <c r="G17" t="n">
+      <c r="H17" t="n">
         <v>241</v>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>X870 EAGLE WIFI7</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>X870 EAGLE WIFI7</t>
+        </is>
+      </c>
+      <c r="J17" t="n">
         <v/>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0DGVMYTW6.xlsx
+++ b/Sufficient data/forecast_summary_B0DGVMYTW6.xlsx
@@ -491,7 +491,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>73</v>
+        <v>204</v>
       </c>
       <c r="E2" t="n">
         <v>206</v>
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>137</v>
+        <v>218</v>
       </c>
       <c r="E3" t="n">
         <v>221</v>
@@ -571,7 +571,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>141</v>
+        <v>222</v>
       </c>
       <c r="E4" t="n">
         <v>225</v>
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>139</v>
+        <v>210</v>
       </c>
       <c r="E5" t="n">
         <v>213</v>
@@ -651,7 +651,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="E6" t="n">
         <v>160</v>
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E7" t="n">
         <v>158</v>
@@ -731,7 +731,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E8" t="n">
         <v>175</v>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E10" t="n">
         <v>168</v>
@@ -851,7 +851,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E11" t="n">
         <v>187</v>
@@ -891,7 +891,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E12" t="n">
         <v>180</v>
@@ -931,7 +931,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>137</v>
+        <v>192</v>
       </c>
       <c r="E13" t="n">
         <v>196</v>
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E14" t="n">
         <v>180</v>
@@ -1011,7 +1011,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="E15" t="n">
         <v>178</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="E16" t="n">
         <v>183</v>
@@ -1091,7 +1091,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="E17" t="n">
         <v>176</v>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2110</t>
+          <t>2518</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1028</t>
+          <t>1402</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>491</t>
+          <t>853</t>
         </is>
       </c>
     </row>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>222</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>130</t>
         </is>
       </c>
     </row>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-01-05</t>
+          <t>2025-04-20</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0DGVMYTW6.xlsx
+++ b/Sufficient data/forecast_summary_B0DGVMYTW6.xlsx
@@ -482,7 +482,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-01-05</t>
+          <t>2025-01-12</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -491,7 +491,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="E2" t="n">
         <v>206</v>
@@ -522,7 +522,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-01-12</t>
+          <t>2025-01-19</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>218</v>
+        <v>190</v>
       </c>
       <c r="E3" t="n">
         <v>221</v>
@@ -562,7 +562,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-01-19</t>
+          <t>2025-01-26</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -602,7 +602,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-01-26</t>
+          <t>2025-02-02</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -642,7 +642,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-02-02</t>
+          <t>2025-02-09</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -651,7 +651,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="E6" t="n">
         <v>160</v>
@@ -682,7 +682,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-02-09</t>
+          <t>2025-02-16</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>137</v>
+        <v>156</v>
       </c>
       <c r="E7" t="n">
         <v>158</v>
@@ -722,7 +722,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-02-16</t>
+          <t>2025-02-23</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -731,7 +731,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>137</v>
+        <v>172</v>
       </c>
       <c r="E8" t="n">
         <v>175</v>
@@ -762,7 +762,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-02-23</t>
+          <t>2025-03-02</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>136</v>
+        <v>184</v>
       </c>
       <c r="E9" t="n">
         <v>188</v>
@@ -802,7 +802,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-03-02</t>
+          <t>2025-03-09</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>133</v>
+        <v>165</v>
       </c>
       <c r="E10" t="n">
         <v>168</v>
@@ -842,7 +842,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2025-03-09</t>
+          <t>2025-03-16</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -851,7 +851,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>134</v>
+        <v>183</v>
       </c>
       <c r="E11" t="n">
         <v>187</v>
@@ -882,7 +882,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2025-03-16</t>
+          <t>2025-03-23</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -891,7 +891,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>133</v>
+        <v>176</v>
       </c>
       <c r="E12" t="n">
         <v>180</v>
@@ -922,7 +922,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-03-30</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -962,7 +962,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-04-06</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>132</v>
+        <v>177</v>
       </c>
       <c r="E14" t="n">
         <v>180</v>
@@ -1002,7 +1002,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-04-06</t>
+          <t>2025-04-13</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1011,7 +1011,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>131</v>
+        <v>174</v>
       </c>
       <c r="E15" t="n">
         <v>178</v>
@@ -1042,7 +1042,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2025-04-13</t>
+          <t>2025-04-20</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>131</v>
+        <v>178</v>
       </c>
       <c r="E16" t="n">
         <v>183</v>
@@ -1082,7 +1082,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2025-04-20</t>
+          <t>2025-04-27</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1091,7 +1091,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>130</v>
+        <v>172</v>
       </c>
       <c r="E17" t="n">
         <v>176</v>
@@ -1153,7 +1153,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2024-09-22 to 2024-12-29</t>
+          <t>2024-09-22 to 2025-01-05</t>
         </is>
       </c>
     </row>
@@ -1177,7 +1177,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>163</t>
+          <t>225</t>
         </is>
       </c>
     </row>
@@ -1189,7 +1189,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>74</t>
         </is>
       </c>
     </row>
@@ -1201,7 +1201,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>50</t>
         </is>
       </c>
     </row>
@@ -1213,7 +1213,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>78</t>
         </is>
       </c>
     </row>
@@ -1225,7 +1225,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>884 units</t>
+          <t>1183 units</t>
         </is>
       </c>
     </row>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2518</t>
+          <t>2929</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1402</t>
+          <t>1512</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>853</t>
+          <t>843</t>
         </is>
       </c>
     </row>
@@ -1285,7 +1285,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-01-19</t>
+          <t>2025-01-26</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>156</t>
         </is>
       </c>
     </row>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-04-20</t>
+          <t>2025-02-16</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0DGVMYTW6.xlsx
+++ b/Sufficient data/forecast_summary_B0DGVMYTW6.xlsx
@@ -482,7 +482,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-01-12</t>
+          <t>2025-01-19</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -491,19 +491,19 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>221</v>
+        <v>200</v>
       </c>
       <c r="E2" t="n">
-        <v>206</v>
+        <v>348</v>
       </c>
       <c r="F2" t="n">
-        <v>192</v>
+        <v>326</v>
       </c>
       <c r="G2" t="n">
-        <v>215</v>
+        <v>364</v>
       </c>
       <c r="H2" t="n">
-        <v>251</v>
+        <v>422</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -522,7 +522,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-01-19</t>
+          <t>2025-01-26</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -534,16 +534,16 @@
         <v>190</v>
       </c>
       <c r="E3" t="n">
-        <v>221</v>
+        <v>359</v>
       </c>
       <c r="F3" t="n">
-        <v>200</v>
+        <v>326</v>
       </c>
       <c r="G3" t="n">
-        <v>233</v>
+        <v>378</v>
       </c>
       <c r="H3" t="n">
-        <v>284</v>
+        <v>458</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -562,7 +562,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-01-26</t>
+          <t>2025-02-02</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -571,19 +571,19 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>222</v>
+        <v>171</v>
       </c>
       <c r="E4" t="n">
-        <v>225</v>
+        <v>262</v>
       </c>
       <c r="F4" t="n">
-        <v>202</v>
+        <v>238</v>
       </c>
       <c r="G4" t="n">
-        <v>237</v>
+        <v>276</v>
       </c>
       <c r="H4" t="n">
-        <v>293</v>
+        <v>335</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -602,7 +602,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-02-02</t>
+          <t>2025-02-09</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -611,19 +611,19 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>210</v>
+        <v>177</v>
       </c>
       <c r="E5" t="n">
-        <v>213</v>
+        <v>258</v>
       </c>
       <c r="F5" t="n">
-        <v>190</v>
+        <v>234</v>
       </c>
       <c r="G5" t="n">
-        <v>225</v>
+        <v>271</v>
       </c>
       <c r="H5" t="n">
-        <v>280</v>
+        <v>328</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -642,7 +642,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-02-09</t>
+          <t>2025-02-16</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -651,19 +651,19 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>157</v>
+        <v>181</v>
       </c>
       <c r="E6" t="n">
-        <v>160</v>
+        <v>251</v>
       </c>
       <c r="F6" t="n">
-        <v>144</v>
+        <v>227</v>
       </c>
       <c r="G6" t="n">
-        <v>168</v>
+        <v>265</v>
       </c>
       <c r="H6" t="n">
-        <v>206</v>
+        <v>324</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -682,7 +682,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-02-16</t>
+          <t>2025-02-23</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -691,19 +691,19 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>156</v>
+        <v>180</v>
       </c>
       <c r="E7" t="n">
-        <v>158</v>
+        <v>248</v>
       </c>
       <c r="F7" t="n">
-        <v>141</v>
+        <v>220</v>
       </c>
       <c r="G7" t="n">
-        <v>167</v>
+        <v>261</v>
       </c>
       <c r="H7" t="n">
-        <v>208</v>
+        <v>326</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -722,7 +722,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-02-23</t>
+          <t>2025-03-02</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -731,19 +731,19 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="E8" t="n">
-        <v>175</v>
+        <v>266</v>
       </c>
       <c r="F8" t="n">
-        <v>155</v>
+        <v>229</v>
       </c>
       <c r="G8" t="n">
-        <v>185</v>
+        <v>281</v>
       </c>
       <c r="H8" t="n">
-        <v>233</v>
+        <v>365</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -762,7 +762,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-03-02</t>
+          <t>2025-03-09</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -771,19 +771,19 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E9" t="n">
-        <v>188</v>
+        <v>279</v>
       </c>
       <c r="F9" t="n">
-        <v>165</v>
+        <v>237</v>
       </c>
       <c r="G9" t="n">
-        <v>199</v>
+        <v>295</v>
       </c>
       <c r="H9" t="n">
-        <v>252</v>
+        <v>389</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -802,7 +802,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-03-09</t>
+          <t>2025-03-16</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -811,19 +811,19 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="E10" t="n">
-        <v>168</v>
+        <v>251</v>
       </c>
       <c r="F10" t="n">
-        <v>149</v>
+        <v>220</v>
       </c>
       <c r="G10" t="n">
-        <v>177</v>
+        <v>265</v>
       </c>
       <c r="H10" t="n">
-        <v>222</v>
+        <v>337</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -842,7 +842,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2025-03-16</t>
+          <t>2025-03-23</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -851,19 +851,19 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E11" t="n">
-        <v>187</v>
+        <v>261</v>
       </c>
       <c r="F11" t="n">
-        <v>163</v>
+        <v>219</v>
       </c>
       <c r="G11" t="n">
-        <v>198</v>
+        <v>276</v>
       </c>
       <c r="H11" t="n">
-        <v>254</v>
+        <v>370</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -882,7 +882,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-03-30</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -891,19 +891,19 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="E12" t="n">
-        <v>180</v>
+        <v>266</v>
       </c>
       <c r="F12" t="n">
-        <v>156</v>
+        <v>220</v>
       </c>
       <c r="G12" t="n">
-        <v>191</v>
+        <v>282</v>
       </c>
       <c r="H12" t="n">
-        <v>246</v>
+        <v>383</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -922,7 +922,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-04-06</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -931,19 +931,19 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="E13" t="n">
-        <v>196</v>
+        <v>258</v>
       </c>
       <c r="F13" t="n">
-        <v>167</v>
+        <v>214</v>
       </c>
       <c r="G13" t="n">
-        <v>208</v>
+        <v>272</v>
       </c>
       <c r="H13" t="n">
-        <v>274</v>
+        <v>369</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -962,7 +962,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2025-04-06</t>
+          <t>2025-04-13</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -971,19 +971,19 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="E14" t="n">
-        <v>180</v>
+        <v>248</v>
       </c>
       <c r="F14" t="n">
-        <v>157</v>
+        <v>208</v>
       </c>
       <c r="G14" t="n">
-        <v>191</v>
+        <v>263</v>
       </c>
       <c r="H14" t="n">
-        <v>245</v>
+        <v>353</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -1002,7 +1002,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-04-13</t>
+          <t>2025-04-20</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1011,19 +1011,19 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="E15" t="n">
-        <v>178</v>
+        <v>248</v>
       </c>
       <c r="F15" t="n">
-        <v>152</v>
+        <v>206</v>
       </c>
       <c r="G15" t="n">
-        <v>188</v>
+        <v>263</v>
       </c>
       <c r="H15" t="n">
-        <v>247</v>
+        <v>357</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
@@ -1042,7 +1042,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2025-04-20</t>
+          <t>2025-04-27</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1051,19 +1051,19 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E16" t="n">
-        <v>183</v>
+        <v>246</v>
       </c>
       <c r="F16" t="n">
-        <v>153</v>
+        <v>202</v>
       </c>
       <c r="G16" t="n">
-        <v>194</v>
+        <v>260</v>
       </c>
       <c r="H16" t="n">
-        <v>261</v>
+        <v>356</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
@@ -1082,7 +1082,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2025-04-27</t>
+          <t>2025-05-04</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1091,19 +1091,19 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="E17" t="n">
-        <v>176</v>
+        <v>236</v>
       </c>
       <c r="F17" t="n">
-        <v>151</v>
+        <v>197</v>
       </c>
       <c r="G17" t="n">
-        <v>186</v>
+        <v>249</v>
       </c>
       <c r="H17" t="n">
-        <v>241</v>
+        <v>336</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
@@ -1153,7 +1153,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2024-09-22 to 2025-01-05</t>
+          <t>2024-09-22 to 2025-01-12</t>
         </is>
       </c>
     </row>
@@ -1177,7 +1177,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>281</t>
         </is>
       </c>
     </row>
@@ -1189,7 +1189,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>90</t>
         </is>
       </c>
     </row>
@@ -1201,7 +1201,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>59</t>
         </is>
       </c>
     </row>
@@ -1213,7 +1213,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>98</t>
         </is>
       </c>
     </row>
@@ -1225,7 +1225,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1183 units</t>
+          <t>1529 units</t>
         </is>
       </c>
     </row>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2929</t>
+          <t>2902</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1512</t>
+          <t>1468</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>843</t>
+          <t>738</t>
         </is>
       </c>
     </row>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>200</t>
         </is>
       </c>
     </row>
@@ -1285,7 +1285,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-01-26</t>
+          <t>2025-01-19</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>171</t>
         </is>
       </c>
     </row>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-02-16</t>
+          <t>2025-02-02</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0DGVMYTW6.xlsx
+++ b/Sufficient data/forecast_summary_B0DGVMYTW6.xlsx
@@ -491,10 +491,10 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E2" t="n">
-        <v>348</v>
+        <v>282</v>
       </c>
       <c r="F2" t="n">
         <v>326</v>
@@ -531,10 +531,10 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>190</v>
+        <v>262</v>
       </c>
       <c r="E3" t="n">
-        <v>359</v>
+        <v>274</v>
       </c>
       <c r="F3" t="n">
         <v>326</v>
@@ -571,10 +571,10 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>171</v>
+        <v>259</v>
       </c>
       <c r="E4" t="n">
-        <v>262</v>
+        <v>199</v>
       </c>
       <c r="F4" t="n">
         <v>238</v>
@@ -611,10 +611,10 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>177</v>
+        <v>142</v>
       </c>
       <c r="E5" t="n">
-        <v>258</v>
+        <v>197</v>
       </c>
       <c r="F5" t="n">
         <v>234</v>
@@ -651,10 +651,10 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>181</v>
+        <v>207</v>
       </c>
       <c r="E6" t="n">
-        <v>251</v>
+        <v>189</v>
       </c>
       <c r="F6" t="n">
         <v>227</v>
@@ -691,10 +691,10 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>180</v>
+        <v>238</v>
       </c>
       <c r="E7" t="n">
-        <v>248</v>
+        <v>183</v>
       </c>
       <c r="F7" t="n">
         <v>220</v>
@@ -731,10 +731,10 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>183</v>
+        <v>219</v>
       </c>
       <c r="E8" t="n">
-        <v>266</v>
+        <v>188</v>
       </c>
       <c r="F8" t="n">
         <v>229</v>
@@ -771,10 +771,10 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>186</v>
+        <v>252</v>
       </c>
       <c r="E9" t="n">
-        <v>279</v>
+        <v>194</v>
       </c>
       <c r="F9" t="n">
         <v>237</v>
@@ -811,10 +811,10 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>173</v>
+        <v>132</v>
       </c>
       <c r="E10" t="n">
-        <v>251</v>
+        <v>181</v>
       </c>
       <c r="F10" t="n">
         <v>220</v>
@@ -851,10 +851,10 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>182</v>
+        <v>148</v>
       </c>
       <c r="E11" t="n">
-        <v>261</v>
+        <v>179</v>
       </c>
       <c r="F11" t="n">
         <v>219</v>
@@ -891,10 +891,10 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>183</v>
+        <v>234</v>
       </c>
       <c r="E12" t="n">
-        <v>266</v>
+        <v>180</v>
       </c>
       <c r="F12" t="n">
         <v>220</v>
@@ -931,10 +931,10 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>181</v>
+        <v>228</v>
       </c>
       <c r="E13" t="n">
-        <v>258</v>
+        <v>175</v>
       </c>
       <c r="F13" t="n">
         <v>214</v>
@@ -971,10 +971,10 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>180</v>
+        <v>221</v>
       </c>
       <c r="E14" t="n">
-        <v>248</v>
+        <v>170</v>
       </c>
       <c r="F14" t="n">
         <v>208</v>
@@ -1011,10 +1011,10 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>179</v>
+        <v>218</v>
       </c>
       <c r="E15" t="n">
-        <v>248</v>
+        <v>168</v>
       </c>
       <c r="F15" t="n">
         <v>206</v>
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>179</v>
+        <v>216</v>
       </c>
       <c r="E16" t="n">
-        <v>246</v>
+        <v>166</v>
       </c>
       <c r="F16" t="n">
         <v>202</v>
@@ -1091,10 +1091,10 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>177</v>
+        <v>209</v>
       </c>
       <c r="E17" t="n">
-        <v>236</v>
+        <v>161</v>
       </c>
       <c r="F17" t="n">
         <v>197</v>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2902</t>
+          <t>3386</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1468</t>
+          <t>1780</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>738</t>
+          <t>863</t>
         </is>
       </c>
     </row>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>262</t>
         </is>
       </c>
     </row>
@@ -1285,7 +1285,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-01-19</t>
+          <t>2025-01-26</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>171</t>
+          <t>132</t>
         </is>
       </c>
     </row>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-02-02</t>
+          <t>2025-03-16</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0DGVMYTW6.xlsx
+++ b/Sufficient data/forecast_summary_B0DGVMYTW6.xlsx
@@ -491,7 +491,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>201</v>
+        <v>179</v>
       </c>
       <c r="E2" t="n">
         <v>282</v>
@@ -510,8 +510,8 @@
           <t>X870 EAGLE WIFI7</t>
         </is>
       </c>
-      <c r="J2" t="n">
-        <v/>
+      <c r="J2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>262</v>
+        <v>179</v>
       </c>
       <c r="E3" t="n">
         <v>274</v>
@@ -550,8 +550,8 @@
           <t>X870 EAGLE WIFI7</t>
         </is>
       </c>
-      <c r="J3" t="n">
-        <v/>
+      <c r="J3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -571,7 +571,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>259</v>
+        <v>182</v>
       </c>
       <c r="E4" t="n">
         <v>199</v>
@@ -590,8 +590,8 @@
           <t>X870 EAGLE WIFI7</t>
         </is>
       </c>
-      <c r="J4" t="n">
-        <v/>
+      <c r="J4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>142</v>
+        <v>188</v>
       </c>
       <c r="E5" t="n">
         <v>197</v>
@@ -630,8 +630,8 @@
           <t>X870 EAGLE WIFI7</t>
         </is>
       </c>
-      <c r="J5" t="n">
-        <v/>
+      <c r="J5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -651,7 +651,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="E6" t="n">
         <v>189</v>
@@ -670,8 +670,8 @@
           <t>X870 EAGLE WIFI7</t>
         </is>
       </c>
-      <c r="J6" t="n">
-        <v/>
+      <c r="J6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>238</v>
+        <v>190</v>
       </c>
       <c r="E7" t="n">
         <v>183</v>
@@ -710,8 +710,8 @@
           <t>X870 EAGLE WIFI7</t>
         </is>
       </c>
-      <c r="J7" t="n">
-        <v/>
+      <c r="J7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -731,7 +731,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>219</v>
+        <v>191</v>
       </c>
       <c r="E8" t="n">
         <v>188</v>
@@ -750,8 +750,8 @@
           <t>X870 EAGLE WIFI7</t>
         </is>
       </c>
-      <c r="J8" t="n">
-        <v/>
+      <c r="J8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>252</v>
+        <v>193</v>
       </c>
       <c r="E9" t="n">
         <v>194</v>
@@ -790,8 +790,8 @@
           <t>X870 EAGLE WIFI7</t>
         </is>
       </c>
-      <c r="J9" t="n">
-        <v/>
+      <c r="J9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>132</v>
+        <v>189</v>
       </c>
       <c r="E10" t="n">
         <v>181</v>
@@ -830,8 +830,8 @@
           <t>X870 EAGLE WIFI7</t>
         </is>
       </c>
-      <c r="J10" t="n">
-        <v/>
+      <c r="J10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -851,7 +851,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>148</v>
+        <v>188</v>
       </c>
       <c r="E11" t="n">
         <v>179</v>
@@ -870,8 +870,8 @@
           <t>X870 EAGLE WIFI7</t>
         </is>
       </c>
-      <c r="J11" t="n">
-        <v/>
+      <c r="J11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -891,7 +891,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>234</v>
+        <v>189</v>
       </c>
       <c r="E12" t="n">
         <v>180</v>
@@ -910,8 +910,8 @@
           <t>X870 EAGLE WIFI7</t>
         </is>
       </c>
-      <c r="J12" t="n">
-        <v/>
+      <c r="J12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -931,7 +931,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>228</v>
+        <v>187</v>
       </c>
       <c r="E13" t="n">
         <v>175</v>
@@ -950,8 +950,8 @@
           <t>X870 EAGLE WIFI7</t>
         </is>
       </c>
-      <c r="J13" t="n">
-        <v/>
+      <c r="J13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>221</v>
+        <v>186</v>
       </c>
       <c r="E14" t="n">
         <v>170</v>
@@ -990,8 +990,8 @@
           <t>X870 EAGLE WIFI7</t>
         </is>
       </c>
-      <c r="J14" t="n">
-        <v/>
+      <c r="J14" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1011,7 +1011,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>218</v>
+        <v>185</v>
       </c>
       <c r="E15" t="n">
         <v>168</v>
@@ -1030,8 +1030,8 @@
           <t>X870 EAGLE WIFI7</t>
         </is>
       </c>
-      <c r="J15" t="n">
-        <v/>
+      <c r="J15" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>216</v>
+        <v>184</v>
       </c>
       <c r="E16" t="n">
         <v>166</v>
@@ -1070,8 +1070,8 @@
           <t>X870 EAGLE WIFI7</t>
         </is>
       </c>
-      <c r="J16" t="n">
-        <v/>
+      <c r="J16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1091,7 +1091,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>209</v>
+        <v>183</v>
       </c>
       <c r="E17" t="n">
         <v>161</v>
@@ -1110,8 +1110,8 @@
           <t>X870 EAGLE WIFI7</t>
         </is>
       </c>
-      <c r="J17" t="n">
-        <v/>
+      <c r="J17" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>3386</t>
+          <t>2986</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1780</t>
+          <t>1494</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>863</t>
+          <t>728</t>
         </is>
       </c>
     </row>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>262</t>
+          <t>193</t>
         </is>
       </c>
     </row>
@@ -1285,7 +1285,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-01-26</t>
+          <t>2025-03-09</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>132</t>
+          <t>179</t>
         </is>
       </c>
     </row>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-03-16</t>
+          <t>2025-01-19</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0DGVMYTW6.xlsx
+++ b/Sufficient data/forecast_summary_B0DGVMYTW6.xlsx
@@ -482,7 +482,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-01-19</t>
+          <t>2025-01-26</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -491,7 +491,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>179</v>
+        <v>228</v>
       </c>
       <c r="E2" t="n">
         <v>282</v>
@@ -522,7 +522,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-01-26</t>
+          <t>2025-02-02</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>179</v>
+        <v>238</v>
       </c>
       <c r="E3" t="n">
         <v>274</v>
@@ -562,7 +562,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-02-02</t>
+          <t>2025-02-09</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -571,7 +571,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>182</v>
+        <v>259</v>
       </c>
       <c r="E4" t="n">
         <v>199</v>
@@ -602,7 +602,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-02-09</t>
+          <t>2025-02-16</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>188</v>
+        <v>256</v>
       </c>
       <c r="E5" t="n">
         <v>197</v>
@@ -642,7 +642,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-02-16</t>
+          <t>2025-02-23</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -651,7 +651,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>192</v>
+        <v>246</v>
       </c>
       <c r="E6" t="n">
         <v>189</v>
@@ -682,7 +682,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-02-23</t>
+          <t>2025-03-02</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>190</v>
+        <v>238</v>
       </c>
       <c r="E7" t="n">
         <v>183</v>
@@ -722,7 +722,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-03-02</t>
+          <t>2025-03-09</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -731,7 +731,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>191</v>
+        <v>244</v>
       </c>
       <c r="E8" t="n">
         <v>188</v>
@@ -762,7 +762,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-03-09</t>
+          <t>2025-03-16</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>193</v>
+        <v>252</v>
       </c>
       <c r="E9" t="n">
         <v>194</v>
@@ -802,7 +802,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-03-16</t>
+          <t>2025-03-23</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>189</v>
+        <v>235</v>
       </c>
       <c r="E10" t="n">
         <v>181</v>
@@ -842,7 +842,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-03-30</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -851,7 +851,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>188</v>
+        <v>233</v>
       </c>
       <c r="E11" t="n">
         <v>179</v>
@@ -882,7 +882,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-04-06</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -891,7 +891,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>189</v>
+        <v>234</v>
       </c>
       <c r="E12" t="n">
         <v>180</v>
@@ -922,7 +922,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-04-06</t>
+          <t>2025-04-13</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -931,7 +931,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>187</v>
+        <v>228</v>
       </c>
       <c r="E13" t="n">
         <v>175</v>
@@ -962,7 +962,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2025-04-13</t>
+          <t>2025-04-20</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>186</v>
+        <v>221</v>
       </c>
       <c r="E14" t="n">
         <v>170</v>
@@ -1002,7 +1002,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-04-20</t>
+          <t>2025-04-27</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1011,7 +1011,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>185</v>
+        <v>218</v>
       </c>
       <c r="E15" t="n">
         <v>168</v>
@@ -1042,7 +1042,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2025-04-27</t>
+          <t>2025-05-04</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>184</v>
+        <v>216</v>
       </c>
       <c r="E16" t="n">
         <v>166</v>
@@ -1082,7 +1082,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2025-05-04</t>
+          <t>2025-05-11</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1091,7 +1091,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>183</v>
+        <v>209</v>
       </c>
       <c r="E17" t="n">
         <v>161</v>
@@ -1153,7 +1153,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2024-09-22 to 2025-01-12</t>
+          <t>2024-09-22 to 2025-01-19</t>
         </is>
       </c>
     </row>
@@ -1177,7 +1177,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>281</t>
+          <t>400</t>
         </is>
       </c>
     </row>
@@ -1189,7 +1189,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>107</t>
         </is>
       </c>
     </row>
@@ -1201,7 +1201,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>60</t>
         </is>
       </c>
     </row>
@@ -1213,7 +1213,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>120</t>
         </is>
       </c>
     </row>
@@ -1225,7 +1225,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1529 units</t>
+          <t>1929 units</t>
         </is>
       </c>
     </row>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2986</t>
+          <t>3755</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1494</t>
+          <t>1961</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>728</t>
+          <t>981</t>
         </is>
       </c>
     </row>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>193</t>
+          <t>259</t>
         </is>
       </c>
     </row>
@@ -1285,7 +1285,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-03-09</t>
+          <t>2025-02-09</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>179</t>
+          <t>209</t>
         </is>
       </c>
     </row>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-01-19</t>
+          <t>2025-05-11</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0DGVMYTW6.xlsx
+++ b/Sufficient data/forecast_summary_B0DGVMYTW6.xlsx
@@ -1177,7 +1177,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>281</t>
         </is>
       </c>
     </row>
@@ -1189,7 +1189,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>107</t>
+          <t>97</t>
         </is>
       </c>
     </row>
@@ -1213,7 +1213,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>99</t>
         </is>
       </c>
     </row>
@@ -1225,7 +1225,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1929 units</t>
+          <t>1738 units</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0DGVMYTW6.xlsx
+++ b/Sufficient data/forecast_summary_B0DGVMYTW6.xlsx
@@ -482,7 +482,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-01-26</t>
+          <t>2024-12-29</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -491,7 +491,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>228</v>
+        <v>367</v>
       </c>
       <c r="E2" t="n">
         <v>282</v>
@@ -510,8 +510,8 @@
           <t>X870 EAGLE WIFI7</t>
         </is>
       </c>
-      <c r="J2" t="b">
-        <v>0</v>
+      <c r="J2" t="n">
+        <v/>
       </c>
     </row>
     <row r="3">
@@ -522,7 +522,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-02-02</t>
+          <t>2025-01-05</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>238</v>
+        <v>356</v>
       </c>
       <c r="E3" t="n">
         <v>274</v>
@@ -550,8 +550,8 @@
           <t>X870 EAGLE WIFI7</t>
         </is>
       </c>
-      <c r="J3" t="b">
-        <v>0</v>
+      <c r="J3" t="n">
+        <v/>
       </c>
     </row>
     <row r="4">
@@ -562,7 +562,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-02-09</t>
+          <t>2025-01-12</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -590,8 +590,8 @@
           <t>X870 EAGLE WIFI7</t>
         </is>
       </c>
-      <c r="J4" t="b">
-        <v>0</v>
+      <c r="J4" t="n">
+        <v/>
       </c>
     </row>
     <row r="5">
@@ -602,7 +602,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-02-16</t>
+          <t>2025-01-19</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -630,8 +630,8 @@
           <t>X870 EAGLE WIFI7</t>
         </is>
       </c>
-      <c r="J5" t="b">
-        <v>0</v>
+      <c r="J5" t="n">
+        <v/>
       </c>
     </row>
     <row r="6">
@@ -642,7 +642,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-02-23</t>
+          <t>2025-01-26</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -670,8 +670,8 @@
           <t>X870 EAGLE WIFI7</t>
         </is>
       </c>
-      <c r="J6" t="b">
-        <v>0</v>
+      <c r="J6" t="n">
+        <v/>
       </c>
     </row>
     <row r="7">
@@ -682,7 +682,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-03-02</t>
+          <t>2025-02-02</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -710,8 +710,8 @@
           <t>X870 EAGLE WIFI7</t>
         </is>
       </c>
-      <c r="J7" t="b">
-        <v>0</v>
+      <c r="J7" t="n">
+        <v/>
       </c>
     </row>
     <row r="8">
@@ -722,7 +722,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-03-09</t>
+          <t>2025-02-09</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -750,8 +750,8 @@
           <t>X870 EAGLE WIFI7</t>
         </is>
       </c>
-      <c r="J8" t="b">
-        <v>0</v>
+      <c r="J8" t="n">
+        <v/>
       </c>
     </row>
     <row r="9">
@@ -762,7 +762,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-03-16</t>
+          <t>2025-02-16</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -790,8 +790,8 @@
           <t>X870 EAGLE WIFI7</t>
         </is>
       </c>
-      <c r="J9" t="b">
-        <v>0</v>
+      <c r="J9" t="n">
+        <v/>
       </c>
     </row>
     <row r="10">
@@ -802,7 +802,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-02-23</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -830,8 +830,8 @@
           <t>X870 EAGLE WIFI7</t>
         </is>
       </c>
-      <c r="J10" t="b">
-        <v>0</v>
+      <c r="J10" t="n">
+        <v/>
       </c>
     </row>
     <row r="11">
@@ -842,7 +842,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-03-02</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -870,8 +870,8 @@
           <t>X870 EAGLE WIFI7</t>
         </is>
       </c>
-      <c r="J11" t="b">
-        <v>0</v>
+      <c r="J11" t="n">
+        <v/>
       </c>
     </row>
     <row r="12">
@@ -882,7 +882,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2025-04-06</t>
+          <t>2025-03-09</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -910,8 +910,8 @@
           <t>X870 EAGLE WIFI7</t>
         </is>
       </c>
-      <c r="J12" t="b">
-        <v>0</v>
+      <c r="J12" t="n">
+        <v/>
       </c>
     </row>
     <row r="13">
@@ -922,7 +922,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-04-13</t>
+          <t>2025-03-16</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -950,8 +950,8 @@
           <t>X870 EAGLE WIFI7</t>
         </is>
       </c>
-      <c r="J13" t="b">
-        <v>0</v>
+      <c r="J13" t="n">
+        <v/>
       </c>
     </row>
     <row r="14">
@@ -962,7 +962,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2025-04-20</t>
+          <t>2025-03-23</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -990,8 +990,8 @@
           <t>X870 EAGLE WIFI7</t>
         </is>
       </c>
-      <c r="J14" t="b">
-        <v>0</v>
+      <c r="J14" t="n">
+        <v/>
       </c>
     </row>
     <row r="15">
@@ -1002,7 +1002,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-04-27</t>
+          <t>2025-03-30</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1030,8 +1030,8 @@
           <t>X870 EAGLE WIFI7</t>
         </is>
       </c>
-      <c r="J15" t="b">
-        <v>0</v>
+      <c r="J15" t="n">
+        <v/>
       </c>
     </row>
     <row r="16">
@@ -1042,7 +1042,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2025-05-04</t>
+          <t>2025-04-06</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1070,8 +1070,8 @@
           <t>X870 EAGLE WIFI7</t>
         </is>
       </c>
-      <c r="J16" t="b">
-        <v>0</v>
+      <c r="J16" t="n">
+        <v/>
       </c>
     </row>
     <row r="17">
@@ -1082,7 +1082,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2025-05-11</t>
+          <t>2025-04-13</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1110,8 +1110,8 @@
           <t>X870 EAGLE WIFI7</t>
         </is>
       </c>
-      <c r="J17" t="b">
-        <v>0</v>
+      <c r="J17" t="n">
+        <v/>
       </c>
     </row>
   </sheetData>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>3755</t>
+          <t>4012</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1961</t>
+          <t>2218</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>981</t>
+          <t>1238</t>
         </is>
       </c>
     </row>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>259</t>
+          <t>367</t>
         </is>
       </c>
     </row>
@@ -1285,7 +1285,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-02-09</t>
+          <t>2024-12-29</t>
         </is>
       </c>
     </row>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-05-11</t>
+          <t>2025-04-13</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0DGVMYTW6.xlsx
+++ b/Sufficient data/forecast_summary_B0DGVMYTW6.xlsx
@@ -482,7 +482,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2024-12-29</t>
+          <t>2025-01-05</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -491,28 +491,26 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>367</v>
+        <v>291</v>
       </c>
       <c r="E2" t="n">
+        <v>224</v>
+      </c>
+      <c r="F2" t="n">
+        <v>256</v>
+      </c>
+      <c r="G2" t="n">
         <v>282</v>
       </c>
-      <c r="F2" t="n">
-        <v>326</v>
-      </c>
-      <c r="G2" t="n">
-        <v>364</v>
-      </c>
       <c r="H2" t="n">
-        <v>422</v>
+        <v>322</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
           <t>X870 EAGLE WIFI7</t>
         </is>
       </c>
-      <c r="J2" t="n">
-        <v/>
-      </c>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -522,7 +520,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-01-05</t>
+          <t>2025-01-12</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -531,28 +529,26 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>356</v>
+        <v>246</v>
       </c>
       <c r="E3" t="n">
-        <v>274</v>
+        <v>189</v>
       </c>
       <c r="F3" t="n">
-        <v>326</v>
+        <v>220</v>
       </c>
       <c r="G3" t="n">
-        <v>378</v>
+        <v>247</v>
       </c>
       <c r="H3" t="n">
-        <v>458</v>
+        <v>287</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
           <t>X870 EAGLE WIFI7</t>
         </is>
       </c>
-      <c r="J3" t="n">
-        <v/>
-      </c>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -562,7 +558,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-01-12</t>
+          <t>2025-01-19</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -571,28 +567,26 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>259</v>
+        <v>243</v>
       </c>
       <c r="E4" t="n">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="F4" t="n">
-        <v>238</v>
+        <v>219</v>
       </c>
       <c r="G4" t="n">
-        <v>276</v>
+        <v>248</v>
       </c>
       <c r="H4" t="n">
-        <v>335</v>
+        <v>293</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
           <t>X870 EAGLE WIFI7</t>
         </is>
       </c>
-      <c r="J4" t="n">
-        <v/>
-      </c>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -602,7 +596,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-01-19</t>
+          <t>2025-01-26</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -611,28 +605,26 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>256</v>
+        <v>233</v>
       </c>
       <c r="E5" t="n">
-        <v>197</v>
+        <v>179</v>
       </c>
       <c r="F5" t="n">
-        <v>234</v>
+        <v>211</v>
       </c>
       <c r="G5" t="n">
-        <v>271</v>
+        <v>240</v>
       </c>
       <c r="H5" t="n">
-        <v>328</v>
+        <v>284</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
           <t>X870 EAGLE WIFI7</t>
         </is>
       </c>
-      <c r="J5" t="n">
-        <v/>
-      </c>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -642,7 +634,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-01-26</t>
+          <t>2025-02-02</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -651,28 +643,26 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="E6" t="n">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="F6" t="n">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="G6" t="n">
-        <v>265</v>
+        <v>249</v>
       </c>
       <c r="H6" t="n">
-        <v>324</v>
+        <v>298</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
           <t>X870 EAGLE WIFI7</t>
         </is>
       </c>
-      <c r="J6" t="n">
-        <v/>
-      </c>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -682,7 +672,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-02-02</t>
+          <t>2025-02-09</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -691,28 +681,26 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="E7" t="n">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="F7" t="n">
-        <v>220</v>
+        <v>204</v>
       </c>
       <c r="G7" t="n">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="H7" t="n">
-        <v>326</v>
+        <v>285</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
           <t>X870 EAGLE WIFI7</t>
         </is>
       </c>
-      <c r="J7" t="n">
-        <v/>
-      </c>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -722,7 +710,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-02-09</t>
+          <t>2025-02-16</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -731,28 +719,26 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="E8" t="n">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="F8" t="n">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="G8" t="n">
-        <v>281</v>
+        <v>253</v>
       </c>
       <c r="H8" t="n">
-        <v>365</v>
+        <v>311</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
           <t>X870 EAGLE WIFI7</t>
         </is>
       </c>
-      <c r="J8" t="n">
-        <v/>
-      </c>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -762,7 +748,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-02-16</t>
+          <t>2025-02-23</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -771,28 +757,26 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="E9" t="n">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="F9" t="n">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="G9" t="n">
-        <v>295</v>
+        <v>267</v>
       </c>
       <c r="H9" t="n">
-        <v>389</v>
+        <v>334</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
           <t>X870 EAGLE WIFI7</t>
         </is>
       </c>
-      <c r="J9" t="n">
-        <v/>
-      </c>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -802,7 +786,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-02-23</t>
+          <t>2025-03-02</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -811,28 +795,26 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="E10" t="n">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="F10" t="n">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="G10" t="n">
-        <v>265</v>
+        <v>241</v>
       </c>
       <c r="H10" t="n">
-        <v>337</v>
+        <v>293</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
           <t>X870 EAGLE WIFI7</t>
         </is>
       </c>
-      <c r="J10" t="n">
-        <v/>
-      </c>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -842,7 +824,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2025-03-02</t>
+          <t>2025-03-09</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -851,28 +833,26 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="E11" t="n">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="F11" t="n">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="G11" t="n">
-        <v>276</v>
+        <v>249</v>
       </c>
       <c r="H11" t="n">
-        <v>370</v>
+        <v>314</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
           <t>X870 EAGLE WIFI7</t>
         </is>
       </c>
-      <c r="J11" t="n">
-        <v/>
-      </c>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -882,7 +862,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2025-03-09</t>
+          <t>2025-03-16</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -891,28 +871,26 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="E12" t="n">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="F12" t="n">
-        <v>220</v>
+        <v>204</v>
       </c>
       <c r="G12" t="n">
-        <v>282</v>
+        <v>249</v>
       </c>
       <c r="H12" t="n">
-        <v>383</v>
+        <v>320</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
           <t>X870 EAGLE WIFI7</t>
         </is>
       </c>
-      <c r="J12" t="n">
-        <v/>
-      </c>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -922,7 +900,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-03-16</t>
+          <t>2025-03-23</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -931,28 +909,26 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="E13" t="n">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="F13" t="n">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="G13" t="n">
-        <v>272</v>
+        <v>251</v>
       </c>
       <c r="H13" t="n">
-        <v>369</v>
+        <v>323</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
           <t>X870 EAGLE WIFI7</t>
         </is>
       </c>
-      <c r="J13" t="n">
-        <v/>
-      </c>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -962,7 +938,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-03-30</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -971,28 +947,26 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="E14" t="n">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="F14" t="n">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="G14" t="n">
-        <v>263</v>
+        <v>238</v>
       </c>
       <c r="H14" t="n">
-        <v>353</v>
+        <v>302</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
           <t>X870 EAGLE WIFI7</t>
         </is>
       </c>
-      <c r="J14" t="n">
-        <v/>
-      </c>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1002,7 +976,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-04-06</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1011,28 +985,26 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>218</v>
+        <v>198</v>
       </c>
       <c r="E15" t="n">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="F15" t="n">
-        <v>206</v>
+        <v>186</v>
       </c>
       <c r="G15" t="n">
-        <v>263</v>
+        <v>227</v>
       </c>
       <c r="H15" t="n">
-        <v>357</v>
+        <v>294</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
           <t>X870 EAGLE WIFI7</t>
         </is>
       </c>
-      <c r="J15" t="n">
-        <v/>
-      </c>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1042,7 +1014,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2025-04-06</t>
+          <t>2025-04-13</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1051,28 +1023,26 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>216</v>
+        <v>202</v>
       </c>
       <c r="E16" t="n">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="F16" t="n">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="G16" t="n">
-        <v>260</v>
+        <v>237</v>
       </c>
       <c r="H16" t="n">
-        <v>356</v>
+        <v>315</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
           <t>X870 EAGLE WIFI7</t>
         </is>
       </c>
-      <c r="J16" t="n">
-        <v/>
-      </c>
+      <c r="J16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1082,7 +1052,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2025-04-13</t>
+          <t>2025-04-20</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1091,28 +1061,26 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="E17" t="n">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F17" t="n">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="G17" t="n">
-        <v>249</v>
+        <v>236</v>
       </c>
       <c r="H17" t="n">
-        <v>336</v>
+        <v>306</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
           <t>X870 EAGLE WIFI7</t>
         </is>
       </c>
-      <c r="J17" t="n">
-        <v/>
-      </c>
+      <c r="J17" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1153,7 +1121,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2024-09-22 to 2025-01-19</t>
+          <t>2024-09-22 to 2025-01-26</t>
         </is>
       </c>
     </row>
@@ -1189,7 +1157,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>104</t>
         </is>
       </c>
     </row>
@@ -1213,7 +1181,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>101</t>
         </is>
       </c>
     </row>
@@ -1225,7 +1193,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1738 units</t>
+          <t>1977 units</t>
         </is>
       </c>
     </row>
@@ -1237,7 +1205,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>4012</t>
+          <t>3653</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1217,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2218</t>
+          <t>1950</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1229,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1238</t>
+          <t>1013</t>
         </is>
       </c>
     </row>
@@ -1273,7 +1241,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>367</t>
+          <t>291</t>
         </is>
       </c>
     </row>
@@ -1285,7 +1253,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2024-12-29</t>
+          <t>2025-01-05</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1265,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>198</t>
         </is>
       </c>
     </row>
@@ -1309,7 +1277,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-04-13</t>
+          <t>2025-04-06</t>
         </is>
       </c>
     </row>
